--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Fall.121019.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Fall.121019.xlsx_with_dialog_acts.xlsx
@@ -737,12 +737,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1309,12 +1309,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1385,12 +1385,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1651,12 +1651,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1689,12 +1689,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2031,12 +2031,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2221,12 +2221,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3099,12 +3099,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3137,12 +3137,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3289,12 +3289,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3441,12 +3441,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3479,12 +3479,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3517,12 +3517,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3745,12 +3745,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3783,12 +3783,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4053,12 +4053,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4091,12 +4091,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4509,12 +4509,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4661,12 +4661,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4775,12 +4775,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4965,12 +4965,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5315,12 +5315,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5505,12 +5505,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5547,12 +5547,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6003,12 +6003,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6231,12 +6231,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6539,12 +6539,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6577,12 +6577,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6843,12 +6843,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6995,12 +6995,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7679,12 +7679,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7873,12 +7873,12 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7911,12 +7911,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8109,12 +8109,12 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8147,12 +8147,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8375,12 +8375,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8641,12 +8641,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8831,12 +8831,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8869,12 +8869,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8911,12 +8911,12 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8949,12 +8949,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9215,12 +9215,12 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9405,12 +9405,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9595,12 +9595,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10165,12 +10165,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11153,12 +11153,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11761,12 +11761,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11837,12 +11837,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12141,12 +12141,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12411,12 +12411,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12487,12 +12487,12 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12715,12 +12715,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12829,12 +12829,12 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13057,12 +13057,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13285,12 +13285,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14391,12 +14391,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14429,12 +14429,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14467,12 +14467,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14771,12 +14771,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14923,12 +14923,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14961,12 +14961,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15341,12 +15341,12 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15607,12 +15607,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15759,12 +15759,12 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15987,12 +15987,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16367,12 +16367,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16709,12 +16709,12 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17241,12 +17241,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17355,12 +17355,12 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18195,12 +18195,12 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18427,12 +18427,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18465,12 +18465,12 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18959,12 +18959,12 @@
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19111,12 +19111,12 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -19187,12 +19187,12 @@
       <c r="H492" t="inlineStr"/>
       <c r="I492" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19301,12 +19301,12 @@
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19605,12 +19605,12 @@
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19643,12 +19643,12 @@
       <c r="H504" t="inlineStr"/>
       <c r="I504" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
